--- a/xl2json/input/achievement.xlsx
+++ b/xl2json/input/achievement.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -117,6 +117,14 @@
   </si>
   <si>
     <t>saRefs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -483,7 +491,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -529,8 +537,8 @@
       <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="D3">
-        <v>100</v>
+      <c r="D3" t="s">
+        <v>27</v>
       </c>
       <c r="E3" t="s">
         <v>24</v>
@@ -546,8 +554,11 @@
       <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="D4">
-        <v>100</v>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">

--- a/xl2json/input/achievement.xlsx
+++ b/xl2json/input/achievement.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -109,10 +109,6 @@
   </si>
   <si>
     <t>sKey</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test,testhide</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -180,10 +176,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -491,7 +488,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -521,7 +518,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>0</v>
@@ -538,10 +535,10 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="E3" s="3">
+        <v>43419</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
@@ -555,10 +552,10 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
